--- a/test/test-scenarios/atdd-test-results-archive.xlsx
+++ b/test/test-scenarios/atdd-test-results-archive.xlsx
@@ -1,37 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvvugt\source\repos\ATDD.TestScriptor.VSCodeExtension\test\test-scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DC9E21-B090-4448-A172-31B593E61486}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7140E5-3DAA-408D-8916-AE7C24C8E49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="285" windowWidth="24120" windowHeight="15990" tabRatio="865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="20210131" sheetId="17" r:id="rId1"/>
-    <sheet name="20210130" sheetId="16" r:id="rId2"/>
-    <sheet name="20210121" sheetId="15" r:id="rId3"/>
-    <sheet name="20201128" sheetId="14" r:id="rId4"/>
-    <sheet name="20201122" sheetId="13" r:id="rId5"/>
-    <sheet name="20201121" sheetId="12" r:id="rId6"/>
-    <sheet name="20201028" sheetId="11" r:id="rId7"/>
-    <sheet name="20201027" sheetId="10" r:id="rId8"/>
-    <sheet name="20201014" sheetId="9" r:id="rId9"/>
-    <sheet name="20201013" sheetId="8" r:id="rId10"/>
-    <sheet name="20201005" sheetId="7" r:id="rId11"/>
-    <sheet name="20200930" sheetId="6" r:id="rId12"/>
-    <sheet name="20200925" sheetId="5" r:id="rId13"/>
-    <sheet name="20200924" sheetId="4" r:id="rId14"/>
-    <sheet name="20200817" sheetId="3" r:id="rId15"/>
-    <sheet name="20200811" sheetId="2" r:id="rId16"/>
+    <sheet name="20210319" sheetId="20" r:id="rId1"/>
+    <sheet name="20210220" sheetId="19" r:id="rId2"/>
+    <sheet name="20210218" sheetId="18" r:id="rId3"/>
+    <sheet name="20210131" sheetId="17" r:id="rId4"/>
+    <sheet name="20210130" sheetId="16" r:id="rId5"/>
+    <sheet name="20210121" sheetId="15" r:id="rId6"/>
+    <sheet name="20201128" sheetId="14" r:id="rId7"/>
+    <sheet name="20201122" sheetId="13" r:id="rId8"/>
+    <sheet name="20201121" sheetId="12" r:id="rId9"/>
+    <sheet name="20201028" sheetId="11" r:id="rId10"/>
+    <sheet name="20201027" sheetId="10" r:id="rId11"/>
+    <sheet name="20201014" sheetId="9" r:id="rId12"/>
+    <sheet name="20201013" sheetId="8" r:id="rId13"/>
+    <sheet name="20201005" sheetId="7" r:id="rId14"/>
+    <sheet name="20200930" sheetId="6" r:id="rId15"/>
+    <sheet name="20200925" sheetId="5" r:id="rId16"/>
+    <sheet name="20200924" sheetId="4" r:id="rId17"/>
+    <sheet name="20200817" sheetId="3" r:id="rId18"/>
+    <sheet name="20200811" sheetId="2" r:id="rId19"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId17"/>
+    <externalReference r:id="rId20"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="49">
   <si>
     <r>
       <t xml:space="preserve">* Given was only referenced once
@@ -289,6 +292,12 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t>Not able to work out test as the feature is not working well enough</t>
+  </si>
+  <si>
+    <t>User is not ask to confirm remove</t>
+  </si>
 </sst>
 </file>
 
@@ -441,7 +450,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="214">
+  <dxfs count="271">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -983,6 +992,96 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1023,6 +1122,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1496,6 +1596,163 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1523,363 +1780,442 @@
     <sheetNames>
       <sheetName val="Overview"/>
       <sheetName val="ATDD Scenarios"/>
-      <sheetName val="20210220"/>
-      <sheetName val="20210218"/>
+      <sheetName val="20221126"/>
       <sheetName val="Questions"/>
       <sheetName val="Missing Scenarios"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{B539D321-7156-4BE6-862A-EB489B0C555E}" name="Table15691314171819" displayName="Table15691314171819" ref="A1:G5" totalsRowCount="1" headerRowDxfId="69" dataDxfId="68">
-  <autoFilter ref="A1:G4" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
-    <sortCondition ref="A1:A4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{DE9644F6-05D9-4E95-B5A0-607DCBEF429B}" name="Table156913141718202" displayName="Table156913141718202" ref="A1:G8" totalsRowCount="1" headerRowDxfId="78" dataDxfId="77">
+  <autoFilter ref="A1:G7" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G3">
+    <sortCondition ref="A1:A3"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{3F8906D7-67C7-4911-9D4C-C1B136DE02B2}" name="GitHub Issue" totalsRowLabel="Total" dataDxfId="66" totalsRowDxfId="67">
-      <calculatedColumnFormula>VLOOKUP(Table15691314171819[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{9CDBCCAA-B4BB-4D15-92EA-2D699DFCCD0A}" name="GitHub Issue" totalsRowLabel="Total" dataDxfId="75" totalsRowDxfId="76">
+      <calculatedColumnFormula>VLOOKUP(Table156913141718202[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{FD0CA28A-7AEE-42F2-851E-317CB8BADC09}" name="#" totalsRowLabel="0101" dataDxfId="64" totalsRowDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{DC5EE6A7-BD6F-4B6A-BFCD-0D91C854C70C}" name="Feature" totalsRowFunction="count" dataDxfId="62" totalsRowDxfId="63">
-      <calculatedColumnFormula>VLOOKUP(Table15691314171819[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{29A4A28F-C35B-4074-AB25-9D19C79E081E}" name="#" totalsRowLabel="0101" dataDxfId="73" totalsRowDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{91BC586B-5227-4D70-9FFF-F4416722E348}" name="Feature" totalsRowFunction="count" dataDxfId="71" totalsRowDxfId="72">
+      <calculatedColumnFormula>VLOOKUP(Table156913141718202[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{CBCFF074-753F-4E56-99B3-03134D364D56}" name="Scenario" dataDxfId="60" totalsRowDxfId="61">
-      <calculatedColumnFormula>VLOOKUP(Table15691314171819[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{A3988237-C6D4-4C80-AC26-406D5703BDB6}" name="Scenario" dataDxfId="69" totalsRowDxfId="70">
+      <calculatedColumnFormula>VLOOKUP(Table156913141718202[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8A1AB96C-3A03-4826-B0B3-1A11759B0C80}" name="Result" totalsRowFunction="count" dataDxfId="58" totalsRowDxfId="59"/>
-    <tableColumn id="9" xr3:uid="{F252CC34-4BD6-4856-9A7F-16FC888C8CAB}" name="Notes" dataDxfId="56" totalsRowDxfId="57"/>
-    <tableColumn id="4" xr3:uid="{8651BA8D-0289-44D0-B88C-6F5906800418}" name="Issue" totalsRowFunction="count" dataDxfId="54" totalsRowDxfId="55"/>
+    <tableColumn id="7" xr3:uid="{1CD84B03-BCCF-48E0-A1DA-06FFA61642D7}" name="Result" totalsRowFunction="count" dataDxfId="67" totalsRowDxfId="68"/>
+    <tableColumn id="9" xr3:uid="{6CEC1C14-1D0C-4594-A34A-80FB746DF386}" name="Notes" dataDxfId="65" totalsRowDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{FB643267-7515-4F8D-A93B-5692DA2D707D}" name="Issue" totalsRowFunction="count" dataDxfId="63" totalsRowDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{18FEF855-D9B7-4B13-B1D7-D835735BE17B}" name="Table15610" displayName="Table15610" ref="A1:H3" totalsRowShown="0" headerRowDxfId="132" dataDxfId="131">
-  <autoFilter ref="A1:H3" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{CFC6CA3B-9516-4E9A-BF27-7149B6C91C94}" name="Table156913" displayName="Table156913" ref="A1:H17" totalsRowShown="0" headerRowDxfId="170" dataDxfId="169">
+  <autoFilter ref="A1:H17" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C6EFDEDE-76B4-4209-B4EC-DA1A18EB1E97}" name="GitHub Issue" dataDxfId="130"/>
-    <tableColumn id="10" xr3:uid="{098AFD04-1402-4D76-99F4-42E88291CD78}" name="#" dataDxfId="129"/>
-    <tableColumn id="2" xr3:uid="{A22ED63C-C67C-4B00-9624-32C3F944037E}" name="Feature" dataDxfId="128">
-      <calculatedColumnFormula>VLOOKUP(Table15610[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{F049DD95-CBB6-4CF4-AECD-FFE9EFA9225F}" name="GitHub Issue" dataDxfId="168">
+      <calculatedColumnFormula>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0FA99C46-646D-4E8F-B0BF-1140AA37D40A}" name="Scenario" dataDxfId="127">
-      <calculatedColumnFormula>VLOOKUP(Table15610[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{3F1C7698-2293-4A2C-B7C0-4DBB6CF0E963}" name="#" dataDxfId="167"/>
+    <tableColumn id="2" xr3:uid="{095F1FFC-6CB5-40A3-BA57-56E07ECC5DFF}" name="Feature" dataDxfId="166">
+      <calculatedColumnFormula>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5BC9D45B-40F1-46DC-B2C7-78D14AACF783}" name="Result" dataDxfId="126"/>
-    <tableColumn id="9" xr3:uid="{A9EC8C02-2838-4482-9A0B-CA631C93AC74}" name="Notes" dataDxfId="125"/>
-    <tableColumn id="4" xr3:uid="{E96BEF3B-15D4-4559-8F93-2C643E06E8D1}" name="Issue" dataDxfId="124"/>
-    <tableColumn id="5" xr3:uid="{97AE6093-DFB3-42D0-B2E6-8E88C3C12FA7}" name="Issue 2" dataDxfId="123"/>
+    <tableColumn id="3" xr3:uid="{92FC64C8-BA2C-4608-BABF-37803E5F32B7}" name="Scenario" dataDxfId="165">
+      <calculatedColumnFormula>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{D8859BCF-2778-4731-9B31-282100C936B6}" name="Result" dataDxfId="164"/>
+    <tableColumn id="9" xr3:uid="{1F12BDA7-6B5C-44A5-A019-FB17D08F7B57}" name="Notes" dataDxfId="163"/>
+    <tableColumn id="4" xr3:uid="{693E0BB4-2DC4-437F-9B72-7F30012CBE28}" name="Issue" dataDxfId="162"/>
+    <tableColumn id="5" xr3:uid="{EF7CB576-7161-4A79-9067-E1E6E50DE81A}" name="Issue 2" dataDxfId="161"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B64CF8F4-CE80-4A6C-AD27-B418C744F68F}" name="Table1569" displayName="Table1569" ref="A1:H7" totalsRowShown="0" headerRowDxfId="122" dataDxfId="121">
-  <autoFilter ref="A1:H7" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{740179AD-E5D8-4EE8-9700-00CAB79D294E}" name="Table1561012" displayName="Table1561012" ref="A1:H20" totalsRowShown="0" headerRowDxfId="160" dataDxfId="159">
+  <autoFilter ref="A1:H20" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{248814DF-5555-48D1-9D24-25C77E412F33}" name="GitHub Issue" dataDxfId="120"/>
-    <tableColumn id="10" xr3:uid="{DAC0FF69-4A7B-44B9-8A64-DFAA331BA6B1}" name="#" dataDxfId="119"/>
-    <tableColumn id="2" xr3:uid="{C47ECF80-F072-49CE-92EE-000858F57C33}" name="Feature" dataDxfId="118">
-      <calculatedColumnFormula>VLOOKUP(Table1569[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{55E3B8C8-F10F-4605-A66E-73817D42A4AC}" name="GitHub Issue" dataDxfId="158"/>
+    <tableColumn id="10" xr3:uid="{1D01CD7E-CE7A-46E0-9094-E48EC4E812F7}" name="#" dataDxfId="157"/>
+    <tableColumn id="2" xr3:uid="{74EC06EB-7CBA-45ED-ADA4-37F743DBE530}" name="Feature" dataDxfId="156">
+      <calculatedColumnFormula>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FCE57A87-2CF1-4AE6-AFB5-A6F87E64A8A7}" name="Scenario" dataDxfId="117">
-      <calculatedColumnFormula>VLOOKUP(Table1569[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{EAC8A485-DE32-4AB9-B5F0-48E78CE4B246}" name="Scenario" dataDxfId="155">
+      <calculatedColumnFormula>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6DD95B02-B080-42ED-B11F-42AF08CA790D}" name="Result" dataDxfId="116"/>
-    <tableColumn id="9" xr3:uid="{BA282B2B-17BD-4261-9760-F2A925429F7A}" name="Notes" dataDxfId="115"/>
-    <tableColumn id="4" xr3:uid="{0183AB17-AE90-4F38-BCEF-5EDD0F7F69C4}" name="Issue" dataDxfId="114"/>
-    <tableColumn id="5" xr3:uid="{6F37CA82-D4F1-4817-A998-D7062FF308E8}" name="Issue 2" dataDxfId="113"/>
+    <tableColumn id="7" xr3:uid="{BF2B6AC7-09A3-4E65-B760-CB091327A3AE}" name="Result" dataDxfId="154"/>
+    <tableColumn id="9" xr3:uid="{282C4C2A-2464-4CF7-9523-9A0CB7C7EE29}" name="Notes" dataDxfId="153"/>
+    <tableColumn id="4" xr3:uid="{C276B215-15EF-4B27-B0D5-0BE0D0B2907C}" name="Issue" dataDxfId="152"/>
+    <tableColumn id="5" xr3:uid="{529D0B5D-E5CF-4508-B52C-43B6A37D18CE}" name="Issue 2" dataDxfId="151"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{11D5D2FF-987A-4C4B-8287-5026B2C344A7}" name="Table1568" displayName="Table1568" ref="A1:G7" totalsRowShown="0" headerRowDxfId="112" dataDxfId="111">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B79DDCDC-6FE7-4B2F-940D-FC706BBEA4A6}" name="Table111" displayName="Table111" ref="A1:G7" totalsRowShown="0" headerRowDxfId="150" dataDxfId="149">
   <autoFilter ref="A1:G7" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F7">
+    <sortCondition ref="B1:B7"/>
+  </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{DFA97F91-F25D-410C-A738-818C1315CE90}" name="GitHub Issue" dataDxfId="110"/>
-    <tableColumn id="10" xr3:uid="{8A423300-CF45-42DD-9AF6-E565A7CBEE15}" name="#" dataDxfId="109"/>
-    <tableColumn id="2" xr3:uid="{A58FE8A3-D520-4C85-914A-401B76F604A6}" name="Feature" dataDxfId="108">
-      <calculatedColumnFormula>VLOOKUP(Table1568[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{5DB71EFE-0BD0-4F57-B252-2F07EE896089}" name="GitHub Issue" dataDxfId="148"/>
+    <tableColumn id="10" xr3:uid="{952FB679-3CD2-4BAC-A972-B723C7656EBD}" name="#" dataDxfId="147"/>
+    <tableColumn id="2" xr3:uid="{0493B1AA-97DD-4AF0-884B-769757075C7E}" name="Feature" dataDxfId="146">
+      <calculatedColumnFormula>VLOOKUP(Table111[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8FD6A196-893D-483F-BF09-DF7AE9ACEE4A}" name="Scenario" dataDxfId="107">
-      <calculatedColumnFormula>VLOOKUP(Table1568[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{AF7D4B28-493E-4662-8260-00BC0726EB68}" name="Scenario" dataDxfId="145">
+      <calculatedColumnFormula>VLOOKUP(Table111[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{7BE5BF66-1736-41B3-815E-22C1DAA5E223}" name="Result" dataDxfId="106"/>
-    <tableColumn id="9" xr3:uid="{99539950-BFFA-452F-AA77-25B9B87A9CBF}" name="Notes" dataDxfId="105"/>
-    <tableColumn id="4" xr3:uid="{775459C3-4D9D-4D39-8F6A-F5DCF4903870}" name="Issue" dataDxfId="104"/>
+    <tableColumn id="7" xr3:uid="{4A72ED44-050F-4EF5-876A-55D26D5DAF80}" name="Result" dataDxfId="144"/>
+    <tableColumn id="9" xr3:uid="{D44A7FF0-254A-482D-92E3-36D6B5CF3331}" name="Notes" dataDxfId="143"/>
+    <tableColumn id="4" xr3:uid="{986B8609-766C-4F17-B4FE-EE68B195D1CE}" name="Issue" dataDxfId="142"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{28AC8AB7-5573-4790-AA7F-FF6E5B2F17F0}" name="Table1567" displayName="Table1567" ref="A1:F3" totalsRowShown="0" headerRowDxfId="103" dataDxfId="102">
-  <autoFilter ref="A1:F3" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{94C77221-7074-4F1C-A74C-5E453E4BFC90}" name="GitHub Issue" dataDxfId="101"/>
-    <tableColumn id="10" xr3:uid="{13D7D9D4-76B1-4C39-BB48-F4BE5FCA510E}" name="#" dataDxfId="100"/>
-    <tableColumn id="2" xr3:uid="{F0CE7E7A-B26F-463D-BFEC-A7D26F66E924}" name="Feature" dataDxfId="99">
-      <calculatedColumnFormula>VLOOKUP(Table1567[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{18FEF855-D9B7-4B13-B1D7-D835735BE17B}" name="Table15610" displayName="Table15610" ref="A1:H3" totalsRowShown="0" headerRowDxfId="141" dataDxfId="140">
+  <autoFilter ref="A1:H3" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{C6EFDEDE-76B4-4209-B4EC-DA1A18EB1E97}" name="GitHub Issue" dataDxfId="139"/>
+    <tableColumn id="10" xr3:uid="{098AFD04-1402-4D76-99F4-42E88291CD78}" name="#" dataDxfId="138"/>
+    <tableColumn id="2" xr3:uid="{A22ED63C-C67C-4B00-9624-32C3F944037E}" name="Feature" dataDxfId="137">
+      <calculatedColumnFormula>VLOOKUP(Table15610[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EC4230E9-2E23-4E05-8AC2-BBCD98169A66}" name="Scenario" dataDxfId="98">
-      <calculatedColumnFormula>VLOOKUP(Table1567[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{0FA99C46-646D-4E8F-B0BF-1140AA37D40A}" name="Scenario" dataDxfId="136">
+      <calculatedColumnFormula>VLOOKUP(Table15610[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9B22461A-D8F9-4348-BA40-9D96FF1E5CAE}" name="Result" dataDxfId="97"/>
-    <tableColumn id="9" xr3:uid="{E1ED6C50-B858-4476-B39D-6499153902DD}" name="Notes" dataDxfId="96"/>
+    <tableColumn id="7" xr3:uid="{5BC9D45B-40F1-46DC-B2C7-78D14AACF783}" name="Result" dataDxfId="135"/>
+    <tableColumn id="9" xr3:uid="{A9EC8C02-2838-4482-9A0B-CA631C93AC74}" name="Notes" dataDxfId="134"/>
+    <tableColumn id="4" xr3:uid="{E96BEF3B-15D4-4559-8F93-2C643E06E8D1}" name="Issue" dataDxfId="133"/>
+    <tableColumn id="5" xr3:uid="{97AE6093-DFB3-42D0-B2E6-8E88C3C12FA7}" name="Issue 2" dataDxfId="132"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F7801C41-C59F-4D6D-97DB-707026ACD3C1}" name="Table156" displayName="Table156" ref="A1:H56" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
-  <autoFilter ref="A1:H56" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B64CF8F4-CE80-4A6C-AD27-B418C744F68F}" name="Table1569" displayName="Table1569" ref="A1:H7" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130">
+  <autoFilter ref="A1:H7" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{62FA5252-C97E-479F-BD0E-51EB8F86927E}" name="GitHub Issue" dataDxfId="93"/>
-    <tableColumn id="10" xr3:uid="{88279534-B9B2-45EF-85ED-48B0CB30B0FC}" name="#" dataDxfId="92"/>
-    <tableColumn id="2" xr3:uid="{65C1E46E-678E-4257-B598-65E6C48B5518}" name="Feature" dataDxfId="91">
-      <calculatedColumnFormula>VLOOKUP(Table156[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{248814DF-5555-48D1-9D24-25C77E412F33}" name="GitHub Issue" dataDxfId="129"/>
+    <tableColumn id="10" xr3:uid="{DAC0FF69-4A7B-44B9-8A64-DFAA331BA6B1}" name="#" dataDxfId="128"/>
+    <tableColumn id="2" xr3:uid="{C47ECF80-F072-49CE-92EE-000858F57C33}" name="Feature" dataDxfId="127">
+      <calculatedColumnFormula>VLOOKUP(Table1569[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9BDB295D-43E6-4149-9BDB-0C68EF5BEA4F}" name="Scenario" dataDxfId="90">
-      <calculatedColumnFormula>VLOOKUP(Table156[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{FCE57A87-2CF1-4AE6-AFB5-A6F87E64A8A7}" name="Scenario" dataDxfId="126">
+      <calculatedColumnFormula>VLOOKUP(Table1569[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3D6CA3EE-871F-49D7-AEA4-105F31214D8D}" name="Result" dataDxfId="89"/>
-    <tableColumn id="9" xr3:uid="{08CE583F-3E90-4BB7-9FD0-B61300756B3F}" name="Notes" dataDxfId="88"/>
-    <tableColumn id="4" xr3:uid="{ED4FF26B-7742-450D-A2C7-E28622E770A8}" name="Issue" dataDxfId="87"/>
-    <tableColumn id="5" xr3:uid="{8C2A13FB-6FA9-473F-8411-E2953BA508DA}" name="Issue 2" dataDxfId="86"/>
+    <tableColumn id="7" xr3:uid="{6DD95B02-B080-42ED-B11F-42AF08CA790D}" name="Result" dataDxfId="125"/>
+    <tableColumn id="9" xr3:uid="{BA282B2B-17BD-4261-9760-F2A925429F7A}" name="Notes" dataDxfId="124"/>
+    <tableColumn id="4" xr3:uid="{0183AB17-AE90-4F38-BCEF-5EDD0F7F69C4}" name="Issue" dataDxfId="123"/>
+    <tableColumn id="5" xr3:uid="{6F37CA82-D4F1-4817-A998-D7062FF308E8}" name="Issue 2" dataDxfId="122"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0F40283B-A968-4A31-83B7-940851130152}" name="Table15" displayName="Table15" ref="A1:F21" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84">
-  <autoFilter ref="A1:F21" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C88BBA8B-13D1-4F8C-8228-1F627ECA93F3}" name="GitHub Issue" dataDxfId="83"/>
-    <tableColumn id="10" xr3:uid="{C17894F7-82C1-41F9-A109-9D2BE65F4A6B}" name="#" dataDxfId="82"/>
-    <tableColumn id="2" xr3:uid="{B20FB9C3-EBA7-4961-B8F0-A6492DB4ECA8}" name="Feature" dataDxfId="81">
-      <calculatedColumnFormula>VLOOKUP(Table15[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{11D5D2FF-987A-4C4B-8287-5026B2C344A7}" name="Table1568" displayName="Table1568" ref="A1:G7" totalsRowShown="0" headerRowDxfId="121" dataDxfId="120">
+  <autoFilter ref="A1:G7" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{DFA97F91-F25D-410C-A738-818C1315CE90}" name="GitHub Issue" dataDxfId="119"/>
+    <tableColumn id="10" xr3:uid="{8A423300-CF45-42DD-9AF6-E565A7CBEE15}" name="#" dataDxfId="118"/>
+    <tableColumn id="2" xr3:uid="{A58FE8A3-D520-4C85-914A-401B76F604A6}" name="Feature" dataDxfId="117">
+      <calculatedColumnFormula>VLOOKUP(Table1568[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DB9C27DA-5910-400F-AEF3-F7CB64F76112}" name="Scenario" dataDxfId="80">
-      <calculatedColumnFormula>VLOOKUP(Table15[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{8FD6A196-893D-483F-BF09-DF7AE9ACEE4A}" name="Scenario" dataDxfId="116">
+      <calculatedColumnFormula>VLOOKUP(Table1568[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{EE5D19B8-A5A9-46A0-9116-C9340A380AE6}" name="Result" dataDxfId="79"/>
-    <tableColumn id="9" xr3:uid="{EE39F3A9-2DC0-4B72-8030-6BA6C4137552}" name="Notes" dataDxfId="78"/>
+    <tableColumn id="7" xr3:uid="{7BE5BF66-1736-41B3-815E-22C1DAA5E223}" name="Result" dataDxfId="115"/>
+    <tableColumn id="9" xr3:uid="{99539950-BFFA-452F-AA77-25B9B87A9CBF}" name="Notes" dataDxfId="114"/>
+    <tableColumn id="4" xr3:uid="{775459C3-4D9D-4D39-8F6A-F5DCF4903870}" name="Issue" dataDxfId="113"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C07DA563-DBA5-47B2-88E7-741D11EDC768}" name="Table1" displayName="Table1" ref="A1:F19" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{28AC8AB7-5573-4790-AA7F-FF6E5B2F17F0}" name="Table1567" displayName="Table1567" ref="A1:F3" totalsRowShown="0" headerRowDxfId="112" dataDxfId="111">
+  <autoFilter ref="A1:F3" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{94C77221-7074-4F1C-A74C-5E453E4BFC90}" name="GitHub Issue" dataDxfId="110"/>
+    <tableColumn id="10" xr3:uid="{13D7D9D4-76B1-4C39-BB48-F4BE5FCA510E}" name="#" dataDxfId="109"/>
+    <tableColumn id="2" xr3:uid="{F0CE7E7A-B26F-463D-BFEC-A7D26F66E924}" name="Feature" dataDxfId="108">
+      <calculatedColumnFormula>VLOOKUP(Table1567[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{EC4230E9-2E23-4E05-8AC2-BBCD98169A66}" name="Scenario" dataDxfId="107">
+      <calculatedColumnFormula>VLOOKUP(Table1567[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{9B22461A-D8F9-4348-BA40-9D96FF1E5CAE}" name="Result" dataDxfId="106"/>
+    <tableColumn id="9" xr3:uid="{E1ED6C50-B858-4476-B39D-6499153902DD}" name="Notes" dataDxfId="105"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F7801C41-C59F-4D6D-97DB-707026ACD3C1}" name="Table156" displayName="Table156" ref="A1:H56" totalsRowShown="0" headerRowDxfId="104" dataDxfId="103">
+  <autoFilter ref="A1:H56" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H56">
+    <sortCondition ref="A1:A56"/>
+  </sortState>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{62FA5252-C97E-479F-BD0E-51EB8F86927E}" name="GitHub Issue" dataDxfId="102"/>
+    <tableColumn id="10" xr3:uid="{88279534-B9B2-45EF-85ED-48B0CB30B0FC}" name="#" dataDxfId="101"/>
+    <tableColumn id="2" xr3:uid="{65C1E46E-678E-4257-B598-65E6C48B5518}" name="Feature" dataDxfId="100">
+      <calculatedColumnFormula>VLOOKUP(Table156[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{9BDB295D-43E6-4149-9BDB-0C68EF5BEA4F}" name="Scenario" dataDxfId="99">
+      <calculatedColumnFormula>VLOOKUP(Table156[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{3D6CA3EE-871F-49D7-AEA4-105F31214D8D}" name="Result" dataDxfId="98"/>
+    <tableColumn id="9" xr3:uid="{08CE583F-3E90-4BB7-9FD0-B61300756B3F}" name="Notes" dataDxfId="97"/>
+    <tableColumn id="4" xr3:uid="{ED4FF26B-7742-450D-A2C7-E28622E770A8}" name="Issue" dataDxfId="96"/>
+    <tableColumn id="5" xr3:uid="{8C2A13FB-6FA9-473F-8411-E2953BA508DA}" name="Issue 2" dataDxfId="95"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0F40283B-A968-4A31-83B7-940851130152}" name="Table15" displayName="Table15" ref="A1:F21" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93">
+  <autoFilter ref="A1:F21" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F21">
+    <sortCondition ref="A1:A21"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{C88BBA8B-13D1-4F8C-8228-1F627ECA93F3}" name="GitHub Issue" dataDxfId="92"/>
+    <tableColumn id="10" xr3:uid="{C17894F7-82C1-41F9-A109-9D2BE65F4A6B}" name="#" dataDxfId="91"/>
+    <tableColumn id="2" xr3:uid="{B20FB9C3-EBA7-4961-B8F0-A6492DB4ECA8}" name="Feature" dataDxfId="90">
+      <calculatedColumnFormula>VLOOKUP(Table15[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{DB9C27DA-5910-400F-AEF3-F7CB64F76112}" name="Scenario" dataDxfId="89">
+      <calculatedColumnFormula>VLOOKUP(Table15[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{EE5D19B8-A5A9-46A0-9116-C9340A380AE6}" name="Result" dataDxfId="88"/>
+    <tableColumn id="9" xr3:uid="{EE39F3A9-2DC0-4B72-8030-6BA6C4137552}" name="Notes" dataDxfId="87"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C07DA563-DBA5-47B2-88E7-741D11EDC768}" name="Table1" displayName="Table1" ref="A1:F19" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85">
   <autoFilter ref="A1:F19" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{87974612-E18C-48A1-9664-C54B638536B0}" name="GitHub Issue" dataDxfId="75"/>
-    <tableColumn id="10" xr3:uid="{F6A07010-F1E9-4910-AF3B-6F8DF5829579}" name="#" dataDxfId="74"/>
-    <tableColumn id="2" xr3:uid="{02982BB0-7410-4185-8CF1-D0B4FA55AF99}" name="Feature" dataDxfId="73">
+    <tableColumn id="1" xr3:uid="{87974612-E18C-48A1-9664-C54B638536B0}" name="GitHub Issue" dataDxfId="84"/>
+    <tableColumn id="10" xr3:uid="{F6A07010-F1E9-4910-AF3B-6F8DF5829579}" name="#" dataDxfId="83"/>
+    <tableColumn id="2" xr3:uid="{02982BB0-7410-4185-8CF1-D0B4FA55AF99}" name="Feature" dataDxfId="82">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DEA89800-56FD-4648-9748-AFB5CE1C3B9D}" name="Scenario" dataDxfId="72">
+    <tableColumn id="3" xr3:uid="{DEA89800-56FD-4648-9748-AFB5CE1C3B9D}" name="Scenario" dataDxfId="81">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{777A3026-0C2D-4E8E-87BB-6E1E61B95CE5}" name="Result" dataDxfId="71"/>
-    <tableColumn id="9" xr3:uid="{A29A313E-BA52-41CC-802A-A04F1DB6E8D8}" name="Notes" dataDxfId="70"/>
+    <tableColumn id="7" xr3:uid="{777A3026-0C2D-4E8E-87BB-6E1E61B95CE5}" name="Result" dataDxfId="80"/>
+    <tableColumn id="9" xr3:uid="{A29A313E-BA52-41CC-802A-A04F1DB6E8D8}" name="Notes" dataDxfId="79"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{37008A2A-2BEB-4B74-8545-1B4B18BB514E}" name="Table156913141718" displayName="Table156913141718" ref="A1:G91" totalsRowCount="1" headerRowDxfId="213" dataDxfId="212">
-  <autoFilter ref="A1:G90" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G90">
-    <sortCondition ref="A1:A90"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{20D73098-D1DF-40D6-A01C-4DA90A26A7E7}" name="Table1569131417181922" displayName="Table1569131417181922" ref="A1:G5" totalsRowCount="1" headerRowDxfId="270" dataDxfId="269">
+  <autoFilter ref="A1:G4" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
+    <sortCondition ref="A1:A4"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{1A8599FD-1C61-41AF-A7FB-6EDD5FDE3FEB}" name="GitHub Issue" totalsRowLabel="Total" dataDxfId="211" totalsRowDxfId="210">
-      <calculatedColumnFormula>VLOOKUP(Table156913141718[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{76E8B066-259D-4FD4-890F-30A4D28DDA21}" name="GitHub Issue" totalsRowLabel="Total" dataDxfId="268" totalsRowDxfId="267">
+      <calculatedColumnFormula>VLOOKUP(Table1569131417181922[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1377C3C6-C300-4847-B79A-1D0F6C2AE0CC}" name="#" totalsRowLabel="0101" dataDxfId="209" totalsRowDxfId="208"/>
-    <tableColumn id="2" xr3:uid="{39AAC1D7-9EAD-4B4E-BA0A-8AB521EE839B}" name="Feature" totalsRowFunction="count" dataDxfId="207" totalsRowDxfId="206">
-      <calculatedColumnFormula>VLOOKUP(Table156913141718[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{A71FD1BB-EE40-4FC5-9C87-A4C969F58623}" name="#" totalsRowLabel="0101" dataDxfId="266" totalsRowDxfId="265"/>
+    <tableColumn id="2" xr3:uid="{8758245D-5463-4647-9D67-5069622B7403}" name="Feature" totalsRowFunction="count" dataDxfId="264" totalsRowDxfId="263">
+      <calculatedColumnFormula>VLOOKUP(Table1569131417181922[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{F0AB1435-8452-4B63-9569-71273D4BAC2D}" name="Scenario" dataDxfId="205" totalsRowDxfId="204">
-      <calculatedColumnFormula>VLOOKUP(Table156913141718[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{96FAE6B8-EACB-44D8-984E-71F58CF30956}" name="Scenario" dataDxfId="262" totalsRowDxfId="261">
+      <calculatedColumnFormula>VLOOKUP(Table1569131417181922[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DAB7B1B6-F4C7-4D28-9FF3-B53BE65BB3B2}" name="Result" totalsRowFunction="count" dataDxfId="203" totalsRowDxfId="202"/>
-    <tableColumn id="9" xr3:uid="{EDAE2678-FD2D-44B6-9DD0-DE034D9542CC}" name="Notes" dataDxfId="201" totalsRowDxfId="200"/>
-    <tableColumn id="4" xr3:uid="{61EA8510-A09F-4B09-9021-5721F13CCBF8}" name="Issue" totalsRowFunction="count" dataDxfId="199" totalsRowDxfId="198"/>
+    <tableColumn id="7" xr3:uid="{191F6F0B-F0C8-4FE4-A087-32F80D21AE19}" name="Result" totalsRowFunction="count" dataDxfId="260" totalsRowDxfId="259"/>
+    <tableColumn id="9" xr3:uid="{32D9487A-18A4-42F7-980A-E41559E81EF4}" name="Notes" dataDxfId="258" totalsRowDxfId="257"/>
+    <tableColumn id="4" xr3:uid="{8A9CA2C8-EC80-4AAB-B86F-49D461EA9A76}" name="Issue" totalsRowFunction="count" dataDxfId="256" totalsRowDxfId="255"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{68017AD1-6961-4433-AAD8-2917206B644B}" name="Table1569131417" displayName="Table1569131417" ref="A1:G2" totalsRowShown="0" headerRowDxfId="197" dataDxfId="196">
-  <autoFilter ref="A1:G2" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{5B55FD7E-B23F-4962-9C15-81A4DF5EBE43}" name="Table15691314171820" displayName="Table15691314171820" ref="A1:G20" totalsRowCount="1" headerRowDxfId="254" dataDxfId="253">
+  <autoFilter ref="A1:G19" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G12">
+    <sortCondition ref="A1:A12"/>
+  </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{673102FE-495C-4F59-87B9-0B59EF49F20F}" name="GitHub Issue" dataDxfId="195">
-      <calculatedColumnFormula>VLOOKUP(Table1569131417[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{58C024A2-6E76-44B9-A162-A9CBABA5B93B}" name="GitHub Issue" totalsRowLabel="Total" dataDxfId="252" totalsRowDxfId="251">
+      <calculatedColumnFormula>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5979941B-1711-4D7C-8B8E-50A457816369}" name="#" dataDxfId="194"/>
-    <tableColumn id="2" xr3:uid="{A93EBCE7-5EE0-4459-AE49-29CC32041F78}" name="Feature" dataDxfId="193">
-      <calculatedColumnFormula>VLOOKUP(Table1569131417[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{20998797-515A-4AA2-B8FB-85833DFF0ED0}" name="#" totalsRowLabel="0101" dataDxfId="250" totalsRowDxfId="249"/>
+    <tableColumn id="2" xr3:uid="{C02F5D4B-8535-441B-A029-18F02F4F23AF}" name="Feature" totalsRowFunction="count" dataDxfId="248" totalsRowDxfId="247">
+      <calculatedColumnFormula>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3E240C7B-3FDF-455F-B3F9-1D16F0FA84E2}" name="Scenario" dataDxfId="192">
-      <calculatedColumnFormula>VLOOKUP(Table1569131417[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{1C5B3407-A686-4B72-B6FD-80560E377E67}" name="Scenario" dataDxfId="246" totalsRowDxfId="245">
+      <calculatedColumnFormula>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{73149383-24BF-4083-B896-7E4F67AF994B}" name="Result" dataDxfId="191"/>
-    <tableColumn id="9" xr3:uid="{F7A64097-CB13-478B-B07A-D0A3F3C1AA76}" name="Notes" dataDxfId="190"/>
-    <tableColumn id="4" xr3:uid="{6F45352D-9D31-446D-A797-1ED8F59729D4}" name="Issue" dataDxfId="189"/>
+    <tableColumn id="7" xr3:uid="{09DF1135-5480-4E04-BC95-F376428BE24E}" name="Result" totalsRowFunction="count" dataDxfId="244" totalsRowDxfId="243"/>
+    <tableColumn id="9" xr3:uid="{EEA2061E-82D6-4A37-B7A2-CEFD28C8E098}" name="Notes" dataDxfId="242" totalsRowDxfId="241"/>
+    <tableColumn id="4" xr3:uid="{2693F482-249A-461E-A08C-7C43041F6A13}" name="Issue" totalsRowFunction="count" dataDxfId="240" totalsRowDxfId="239"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{C29856A6-1DDE-4D3E-8EF7-C392838BD398}" name="Table156913141516" displayName="Table156913141516" ref="A1:G5" totalsRowShown="0" headerRowDxfId="188" dataDxfId="187">
-  <autoFilter ref="A1:G5" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{B539D321-7156-4BE6-862A-EB489B0C555E}" name="Table15691314171819" displayName="Table15691314171819" ref="A1:G5" totalsRowCount="1" headerRowDxfId="238" dataDxfId="237">
+  <autoFilter ref="A1:G4" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
+    <sortCondition ref="A1:A4"/>
+  </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{841C50AF-62ED-40B6-A5EA-BCC2B893F03A}" name="GitHub Issue" dataDxfId="186">
-      <calculatedColumnFormula>VLOOKUP(Table156913141516[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{3F8906D7-67C7-4911-9D4C-C1B136DE02B2}" name="GitHub Issue" totalsRowLabel="Total" dataDxfId="236" totalsRowDxfId="235">
+      <calculatedColumnFormula>VLOOKUP(Table15691314171819[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{F503BC1B-7DB8-4002-ABF1-58ABE89E1830}" name="#" dataDxfId="185"/>
-    <tableColumn id="2" xr3:uid="{C571017F-6C16-4BB1-82F5-13611FFB59CF}" name="Feature" dataDxfId="184">
-      <calculatedColumnFormula>VLOOKUP(Table156913141516[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{FD0CA28A-7AEE-42F2-851E-317CB8BADC09}" name="#" totalsRowLabel="0101" dataDxfId="234" totalsRowDxfId="233"/>
+    <tableColumn id="2" xr3:uid="{DC5EE6A7-BD6F-4B6A-BFCD-0D91C854C70C}" name="Feature" totalsRowFunction="count" dataDxfId="232" totalsRowDxfId="231">
+      <calculatedColumnFormula>VLOOKUP(Table15691314171819[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{338C274F-0757-442C-A461-222ACF7CA161}" name="Scenario" dataDxfId="183">
-      <calculatedColumnFormula>VLOOKUP(Table156913141516[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{CBCFF074-753F-4E56-99B3-03134D364D56}" name="Scenario" dataDxfId="230" totalsRowDxfId="229">
+      <calculatedColumnFormula>VLOOKUP(Table15691314171819[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C548F0C1-A750-457C-B904-D1F8B4782288}" name="Result" dataDxfId="182"/>
-    <tableColumn id="9" xr3:uid="{DB18A27F-42A0-4092-ABBD-7337C53F28D0}" name="Notes" dataDxfId="181"/>
-    <tableColumn id="4" xr3:uid="{D578B900-59BC-4A17-B895-07C1F3BA9A78}" name="Issue" dataDxfId="180"/>
+    <tableColumn id="7" xr3:uid="{8A1AB96C-3A03-4826-B0B3-1A11759B0C80}" name="Result" totalsRowFunction="count" dataDxfId="228" totalsRowDxfId="227"/>
+    <tableColumn id="9" xr3:uid="{F252CC34-4BD6-4856-9A7F-16FC888C8CAB}" name="Notes" dataDxfId="226" totalsRowDxfId="225"/>
+    <tableColumn id="4" xr3:uid="{8651BA8D-0289-44D0-B88C-6F5906800418}" name="Issue" totalsRowFunction="count" dataDxfId="224" totalsRowDxfId="223"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{D459524E-60F0-47D2-863B-0EFF867243DE}" name="Table1569131415" displayName="Table1569131415" ref="A1:G11" totalsRowShown="0" headerRowDxfId="179" dataDxfId="178">
-  <autoFilter ref="A1:G11" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{37008A2A-2BEB-4B74-8545-1B4B18BB514E}" name="Table156913141718" displayName="Table156913141718" ref="A1:G91" totalsRowCount="1" headerRowDxfId="222" dataDxfId="221">
+  <autoFilter ref="A1:G90" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G90">
+    <sortCondition ref="A1:A90"/>
+  </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F2860C1F-2CAC-4F48-9D21-EE749371FC24}" name="GitHub Issue" dataDxfId="177">
-      <calculatedColumnFormula>VLOOKUP(Table1569131415[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{1A8599FD-1C61-41AF-A7FB-6EDD5FDE3FEB}" name="GitHub Issue" totalsRowLabel="Total" dataDxfId="220" totalsRowDxfId="219">
+      <calculatedColumnFormula>VLOOKUP(Table156913141718[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{C5E95249-B8EB-486E-8767-21D8F0A0A62C}" name="#" dataDxfId="176"/>
-    <tableColumn id="2" xr3:uid="{3D03DEE9-A69F-4186-9544-A9E1591B8341}" name="Feature" dataDxfId="175">
-      <calculatedColumnFormula>VLOOKUP(Table1569131415[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{1377C3C6-C300-4847-B79A-1D0F6C2AE0CC}" name="#" totalsRowLabel="0101" dataDxfId="218" totalsRowDxfId="217"/>
+    <tableColumn id="2" xr3:uid="{39AAC1D7-9EAD-4B4E-BA0A-8AB521EE839B}" name="Feature" totalsRowFunction="count" dataDxfId="216" totalsRowDxfId="215">
+      <calculatedColumnFormula>VLOOKUP(Table156913141718[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EBAA9733-8EE7-4AB7-AA6E-AD5B463DCCDB}" name="Scenario" dataDxfId="174">
-      <calculatedColumnFormula>VLOOKUP(Table1569131415[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{F0AB1435-8452-4B63-9569-71273D4BAC2D}" name="Scenario" dataDxfId="214" totalsRowDxfId="213">
+      <calculatedColumnFormula>VLOOKUP(Table156913141718[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{B8D9077E-097D-43F7-AB61-3DC50B07F8DB}" name="Result" dataDxfId="173"/>
-    <tableColumn id="9" xr3:uid="{D33A8DD7-138F-48EF-8A7B-F7CF762853E4}" name="Notes" dataDxfId="172"/>
-    <tableColumn id="4" xr3:uid="{5957F9B4-6CFA-4A46-96FE-FA6B5AD2F680}" name="Issue" dataDxfId="171"/>
+    <tableColumn id="7" xr3:uid="{DAB7B1B6-F4C7-4D28-9FF3-B53BE65BB3B2}" name="Result" totalsRowFunction="count" dataDxfId="212" totalsRowDxfId="211"/>
+    <tableColumn id="9" xr3:uid="{EDAE2678-FD2D-44B6-9DD0-DE034D9542CC}" name="Notes" dataDxfId="210" totalsRowDxfId="209"/>
+    <tableColumn id="4" xr3:uid="{61EA8510-A09F-4B09-9021-5721F13CCBF8}" name="Issue" totalsRowFunction="count" dataDxfId="208" totalsRowDxfId="207"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{FC3022DA-0B7F-444C-ACEF-E4CFC44A1D86}" name="Table15691314" displayName="Table15691314" ref="A1:G75" totalsRowShown="0" headerRowDxfId="170" dataDxfId="169">
-  <autoFilter ref="A1:G75" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{68017AD1-6961-4433-AAD8-2917206B644B}" name="Table1569131417" displayName="Table1569131417" ref="A1:G2" totalsRowShown="0" headerRowDxfId="206" dataDxfId="205">
+  <autoFilter ref="A1:G2" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{AF78A628-9C38-4564-9808-3B26AF234F77}" name="GitHub Issue" dataDxfId="168">
-      <calculatedColumnFormula>VLOOKUP(Table15691314[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{673102FE-495C-4F59-87B9-0B59EF49F20F}" name="GitHub Issue" dataDxfId="204">
+      <calculatedColumnFormula>VLOOKUP(Table1569131417[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{2CAB733F-F4E3-4B07-84CB-D00849F9BD6C}" name="#" dataDxfId="167"/>
-    <tableColumn id="2" xr3:uid="{0F5DE106-934C-4581-BEC9-F2BED1604D9A}" name="Feature" dataDxfId="166">
-      <calculatedColumnFormula>VLOOKUP(Table15691314[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{5979941B-1711-4D7C-8B8E-50A457816369}" name="#" dataDxfId="203"/>
+    <tableColumn id="2" xr3:uid="{A93EBCE7-5EE0-4459-AE49-29CC32041F78}" name="Feature" dataDxfId="202">
+      <calculatedColumnFormula>VLOOKUP(Table1569131417[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{211378E0-438E-4FA5-A4AE-A66A0C3D748F}" name="Scenario" dataDxfId="165">
-      <calculatedColumnFormula>VLOOKUP(Table15691314[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{3E240C7B-3FDF-455F-B3F9-1D16F0FA84E2}" name="Scenario" dataDxfId="201">
+      <calculatedColumnFormula>VLOOKUP(Table1569131417[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{932BD0E7-22E6-4F2C-8057-85843CDDFC76}" name="Result" dataDxfId="164"/>
-    <tableColumn id="9" xr3:uid="{E6B98784-DB78-486D-B5E1-8E879B6CB05A}" name="Notes" dataDxfId="163"/>
-    <tableColumn id="4" xr3:uid="{EF5B5B9D-C80C-4F4B-B547-BA970D46AED2}" name="Issue" dataDxfId="162"/>
+    <tableColumn id="7" xr3:uid="{73149383-24BF-4083-B896-7E4F67AF994B}" name="Result" dataDxfId="200"/>
+    <tableColumn id="9" xr3:uid="{F7A64097-CB13-478B-B07A-D0A3F3C1AA76}" name="Notes" dataDxfId="199"/>
+    <tableColumn id="4" xr3:uid="{6F45352D-9D31-446D-A797-1ED8F59729D4}" name="Issue" dataDxfId="198"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{CFC6CA3B-9516-4E9A-BF27-7149B6C91C94}" name="Table156913" displayName="Table156913" ref="A1:H17" totalsRowShown="0" headerRowDxfId="161" dataDxfId="160">
-  <autoFilter ref="A1:H17" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{F049DD95-CBB6-4CF4-AECD-FFE9EFA9225F}" name="GitHub Issue" dataDxfId="159">
-      <calculatedColumnFormula>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{C29856A6-1DDE-4D3E-8EF7-C392838BD398}" name="Table156913141516" displayName="Table156913141516" ref="A1:G5" totalsRowShown="0" headerRowDxfId="197" dataDxfId="196">
+  <autoFilter ref="A1:G5" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{841C50AF-62ED-40B6-A5EA-BCC2B893F03A}" name="GitHub Issue" dataDxfId="195">
+      <calculatedColumnFormula>VLOOKUP(Table156913141516[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3F1C7698-2293-4A2C-B7C0-4DBB6CF0E963}" name="#" dataDxfId="158"/>
-    <tableColumn id="2" xr3:uid="{095F1FFC-6CB5-40A3-BA57-56E07ECC5DFF}" name="Feature" dataDxfId="157">
-      <calculatedColumnFormula>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{F503BC1B-7DB8-4002-ABF1-58ABE89E1830}" name="#" dataDxfId="194"/>
+    <tableColumn id="2" xr3:uid="{C571017F-6C16-4BB1-82F5-13611FFB59CF}" name="Feature" dataDxfId="193">
+      <calculatedColumnFormula>VLOOKUP(Table156913141516[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{92FC64C8-BA2C-4608-BABF-37803E5F32B7}" name="Scenario" dataDxfId="156">
-      <calculatedColumnFormula>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{338C274F-0757-442C-A461-222ACF7CA161}" name="Scenario" dataDxfId="192">
+      <calculatedColumnFormula>VLOOKUP(Table156913141516[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D8859BCF-2778-4731-9B31-282100C936B6}" name="Result" dataDxfId="155"/>
-    <tableColumn id="9" xr3:uid="{1F12BDA7-6B5C-44A5-A019-FB17D08F7B57}" name="Notes" dataDxfId="154"/>
-    <tableColumn id="4" xr3:uid="{693E0BB4-2DC4-437F-9B72-7F30012CBE28}" name="Issue" dataDxfId="153"/>
-    <tableColumn id="5" xr3:uid="{EF7CB576-7161-4A79-9067-E1E6E50DE81A}" name="Issue 2" dataDxfId="152"/>
+    <tableColumn id="7" xr3:uid="{C548F0C1-A750-457C-B904-D1F8B4782288}" name="Result" dataDxfId="191"/>
+    <tableColumn id="9" xr3:uid="{DB18A27F-42A0-4092-ABBD-7337C53F28D0}" name="Notes" dataDxfId="190"/>
+    <tableColumn id="4" xr3:uid="{D578B900-59BC-4A17-B895-07C1F3BA9A78}" name="Issue" dataDxfId="189"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{740179AD-E5D8-4EE8-9700-00CAB79D294E}" name="Table1561012" displayName="Table1561012" ref="A1:H20" totalsRowShown="0" headerRowDxfId="151" dataDxfId="150">
-  <autoFilter ref="A1:H20" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{55E3B8C8-F10F-4605-A66E-73817D42A4AC}" name="GitHub Issue" dataDxfId="149"/>
-    <tableColumn id="10" xr3:uid="{1D01CD7E-CE7A-46E0-9094-E48EC4E812F7}" name="#" dataDxfId="148"/>
-    <tableColumn id="2" xr3:uid="{74EC06EB-7CBA-45ED-ADA4-37F743DBE530}" name="Feature" dataDxfId="147">
-      <calculatedColumnFormula>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{D459524E-60F0-47D2-863B-0EFF867243DE}" name="Table1569131415" displayName="Table1569131415" ref="A1:G11" totalsRowShown="0" headerRowDxfId="188" dataDxfId="187">
+  <autoFilter ref="A1:G11" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{F2860C1F-2CAC-4F48-9D21-EE749371FC24}" name="GitHub Issue" dataDxfId="186">
+      <calculatedColumnFormula>VLOOKUP(Table1569131415[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EAC8A485-DE32-4AB9-B5F0-48E78CE4B246}" name="Scenario" dataDxfId="146">
-      <calculatedColumnFormula>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{C5E95249-B8EB-486E-8767-21D8F0A0A62C}" name="#" dataDxfId="185"/>
+    <tableColumn id="2" xr3:uid="{3D03DEE9-A69F-4186-9544-A9E1591B8341}" name="Feature" dataDxfId="184">
+      <calculatedColumnFormula>VLOOKUP(Table1569131415[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BF2B6AC7-09A3-4E65-B760-CB091327A3AE}" name="Result" dataDxfId="145"/>
-    <tableColumn id="9" xr3:uid="{282C4C2A-2464-4CF7-9523-9A0CB7C7EE29}" name="Notes" dataDxfId="144"/>
-    <tableColumn id="4" xr3:uid="{C276B215-15EF-4B27-B0D5-0BE0D0B2907C}" name="Issue" dataDxfId="143"/>
-    <tableColumn id="5" xr3:uid="{529D0B5D-E5CF-4508-B52C-43B6A37D18CE}" name="Issue 2" dataDxfId="142"/>
+    <tableColumn id="3" xr3:uid="{EBAA9733-8EE7-4AB7-AA6E-AD5B463DCCDB}" name="Scenario" dataDxfId="183">
+      <calculatedColumnFormula>VLOOKUP(Table1569131415[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{B8D9077E-097D-43F7-AB61-3DC50B07F8DB}" name="Result" dataDxfId="182"/>
+    <tableColumn id="9" xr3:uid="{D33A8DD7-138F-48EF-8A7B-F7CF762853E4}" name="Notes" dataDxfId="181"/>
+    <tableColumn id="4" xr3:uid="{5957F9B4-6CFA-4A46-96FE-FA6B5AD2F680}" name="Issue" dataDxfId="180"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B79DDCDC-6FE7-4B2F-940D-FC706BBEA4A6}" name="Table111" displayName="Table111" ref="A1:G7" totalsRowShown="0" headerRowDxfId="141" dataDxfId="140">
-  <autoFilter ref="A1:G7" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F7">
-    <sortCondition ref="B1:B7"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{FC3022DA-0B7F-444C-ACEF-E4CFC44A1D86}" name="Table15691314" displayName="Table15691314" ref="A1:G75" totalsRowShown="0" headerRowDxfId="179" dataDxfId="178">
+  <autoFilter ref="A1:G75" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5DB71EFE-0BD0-4F57-B252-2F07EE896089}" name="GitHub Issue" dataDxfId="139"/>
-    <tableColumn id="10" xr3:uid="{952FB679-3CD2-4BAC-A972-B723C7656EBD}" name="#" dataDxfId="138"/>
-    <tableColumn id="2" xr3:uid="{0493B1AA-97DD-4AF0-884B-769757075C7E}" name="Feature" dataDxfId="137">
-      <calculatedColumnFormula>VLOOKUP(Table111[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{AF78A628-9C38-4564-9808-3B26AF234F77}" name="GitHub Issue" dataDxfId="177">
+      <calculatedColumnFormula>VLOOKUP(Table15691314[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{AF7D4B28-493E-4662-8260-00BC0726EB68}" name="Scenario" dataDxfId="136">
-      <calculatedColumnFormula>VLOOKUP(Table111[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{2CAB733F-F4E3-4B07-84CB-D00849F9BD6C}" name="#" dataDxfId="176"/>
+    <tableColumn id="2" xr3:uid="{0F5DE106-934C-4581-BEC9-F2BED1604D9A}" name="Feature" dataDxfId="175">
+      <calculatedColumnFormula>VLOOKUP(Table15691314[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4A72ED44-050F-4EF5-876A-55D26D5DAF80}" name="Result" dataDxfId="135"/>
-    <tableColumn id="9" xr3:uid="{D44A7FF0-254A-482D-92E3-36D6B5CF3331}" name="Notes" dataDxfId="134"/>
-    <tableColumn id="4" xr3:uid="{986B8609-766C-4F17-B4FE-EE68B195D1CE}" name="Issue" dataDxfId="133"/>
+    <tableColumn id="3" xr3:uid="{211378E0-438E-4FA5-A4AE-A66A0C3D748F}" name="Scenario" dataDxfId="174">
+      <calculatedColumnFormula>VLOOKUP(Table15691314[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{932BD0E7-22E6-4F2C-8057-85843CDDFC76}" name="Result" dataDxfId="173"/>
+    <tableColumn id="9" xr3:uid="{E6B98784-DB78-486D-B5E1-8E879B6CB05A}" name="Notes" dataDxfId="172"/>
+    <tableColumn id="4" xr3:uid="{EF5B5B9D-C80C-4F4B-B547-BA970D46AED2}" name="Issue" dataDxfId="171"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2147,11 +2483,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891303EA-C28A-41B4-8227-C4B0FA0A06CE}">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FAA1B90-33F6-4A3C-90E6-E7C0B1C4588D}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G4"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2188,21 +2524,21 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <f>VLOOKUP(Table15691314171819[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
-        <v>39</v>
+        <f>VLOOKUP(Table156913141718202[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
+        <v>62</v>
       </c>
       <c r="B2" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C2" s="1" t="str">
-        <f>VLOOKUP(Table15691314171819[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Removing Scenario</v>
+        <f>VLOOKUP(Table156913141718202[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Removing Feature</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f>VLOOKUP(Table15691314171819[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Remove Scenario clicking twice</v>
+        <f>VLOOKUP(Table156913141718202[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Remove Feature (only one in one codeunit)</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
@@ -2210,21 +2546,21 @@
       <c r="F2" s="3"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <f>VLOOKUP(Table15691314171819[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
-        <v>39</v>
+        <f>VLOOKUP(Table156913141718202[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
+        <v>62</v>
       </c>
       <c r="B3" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C3" s="1" t="str">
-        <f>VLOOKUP(Table15691314171819[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Removing Scenario</v>
+        <f>VLOOKUP(Table156913141718202[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Removing Feature</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f>VLOOKUP(Table15691314171819[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Remove Scenario clicking twice step 2</v>
+        <f>VLOOKUP(Table156913141718202[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Remove Feature (only one in one codeunit) step 2</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
@@ -2232,53 +2568,117 @@
       <c r="F3" s="3"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <f>VLOOKUP(Table15691314171819[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
-        <v>39</v>
+        <f>VLOOKUP(Table156913141718202[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
+        <v>62</v>
       </c>
       <c r="B4" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C4" s="1" t="str">
-        <f>VLOOKUP(Table15691314171819[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Removing Scenario</v>
+        <f>VLOOKUP(Table156913141718202[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Removing Feature</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f>VLOOKUP(Table15691314171819[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Remove Scenario clicking twice step 3</v>
+        <f>VLOOKUP(Table156913141718202[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Remove Feature (two in one codeunit)</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="4">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <f>VLOOKUP(Table156913141718202[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
+        <v>62</v>
+      </c>
+      <c r="B5" s="2">
+        <v>104</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f>VLOOKUP(Table156913141718202[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Removing Feature</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f>VLOOKUP(Table156913141718202[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Remove Feature (two in one codeunit) step 2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <f>VLOOKUP(Table156913141718202[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
+        <v>62</v>
+      </c>
+      <c r="B6" s="2">
+        <v>105</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f>VLOOKUP(Table156913141718202[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Removing Feature</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f>VLOOKUP(Table156913141718202[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Remove Feature (two in two codeunits)</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f>VLOOKUP(Table156913141718202[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
+        <v>62</v>
+      </c>
+      <c r="B7" s="2">
+        <v>106</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f>VLOOKUP(Table156913141718202[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Removing Feature</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f>VLOOKUP(Table156913141718202[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Remove Feature (two in two codeunits) step 2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="1">
-        <f>SUBTOTAL(103,Table15691314171819[Feature])</f>
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <f>SUBTOTAL(103,Table15691314171819[Result])</f>
-        <v>3</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="1">
-        <f>SUBTOTAL(103,Table15691314171819[Issue])</f>
-        <v>1</v>
+      <c r="C8" s="1">
+        <f>SUBTOTAL(103,Table156913141718202[Feature])</f>
+        <v>6</v>
+      </c>
+      <c r="E8" s="1">
+        <f>SUBTOTAL(103,Table156913141718202[Result])</f>
+        <v>6</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="1">
+        <f>SUBTOTAL(103,Table156913141718202[Issue])</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A6:A1048576 A1:A4">
+  <conditionalFormatting sqref="A9:A1048576 A1:A7">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2290,29 +2690,1221 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E1048576 E1:E4">
-    <cfRule type="cellIs" dxfId="53" priority="2" operator="equal">
+  <conditionalFormatting sqref="E9:E1048576 E1:E7">
+    <cfRule type="cellIs" dxfId="62" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/88" xr:uid="{CD46692A-D807-457C-9BB2-53584C9C8D4D}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FDF79B-0D2C-4ACD-8E32-A1388079EC3D}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="90.42578125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
+        <v>39</v>
+      </c>
+      <c r="B2" s="2">
+        <v>56</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Removing Scenario</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Removing Scenario</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
+        <v>39</v>
+      </c>
+      <c r="B3" s="2">
+        <v>57</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Removing Scenario</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Removing Scenario step 2a</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
+        <v>39</v>
+      </c>
+      <c r="B4" s="2">
+        <v>58</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Removing Scenario</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Removing Scenario step 3a</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
+        <v>39</v>
+      </c>
+      <c r="B5" s="2">
+        <v>59</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Removing Scenario</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Removing Scenario step 2b</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
+        <v>39</v>
+      </c>
+      <c r="B6" s="2">
+        <v>60</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Removing Scenario</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Removing Scenario step 3b</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
+        <v>39</v>
+      </c>
+      <c r="B7" s="2">
+        <v>68</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Removing Scenario</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Removing Scenario with Initialize</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
+        <v>39</v>
+      </c>
+      <c r="B8" s="2">
+        <v>69</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Removing Scenario</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Removing Scenario with UI Handler</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
+        <v>39</v>
+      </c>
+      <c r="B9" s="2">
+        <v>70</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Removing Scenario</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Removing Scenario with UI Handler 2</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
+        <v>39</v>
+      </c>
+      <c r="B10" s="2">
+        <v>71</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Removing Scenario</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Removal Mode "No confirmation, but removal"</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
+        <v>39</v>
+      </c>
+      <c r="B11" s="2">
+        <v>72</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Removing Scenario</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Removal Mode "No confirmation &amp; no removal"</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="B12" s="2">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Updating Given</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Rename "Valid Given" to "Renamed Valid Given"</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="B13" s="2">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Updating Given</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Rename "Valid Given" to "Renamed Valid Given" step 2a</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="B14" s="2">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Updating When</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Rename "Valid When" to "Renamed Valid When"</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="B15" s="2">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Updating When</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Rename "Valid When" to "Renamed Valid When" step 2a</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="B16" s="2">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Updating Then</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Rename "Valid Then" to "Renamed Valid Then"</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="B17" s="2">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Updating Then</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Rename "Valid Then" to "Renamed Valid Then" step 2a</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="4" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="G14" r:id="rId1" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/67" xr:uid="{9E30EC47-48F7-497C-945B-A95DA6E87667}"/>
+    <hyperlink ref="G15:G17" r:id="rId2" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/67" xr:uid="{D43A34CF-E225-4834-BD27-AEC9D3AE6D17}"/>
+    <hyperlink ref="G13" r:id="rId3" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/67" xr:uid="{406EC42A-40B1-4CCD-B392-F7B583AB2C8E}"/>
+    <hyperlink ref="G12" r:id="rId4" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/67" xr:uid="{55E122DE-E7E9-4E82-AC69-157EA45966F0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId6"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536C9D24-6F59-45ED-9C31-287A9BDA87DC}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="90.42578125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Updating Given</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Rename "Valid Given" to "Renamed Valid Given"</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Updating Given</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Rename "Valid Given" to "Renamed Valid Given" step 2a</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2">
+        <v>46</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Updating Given</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Rename "Valid Given" to "Renamed Valid Given" step 2b</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Updating Given</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Revert Rename of Given</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Updating Given</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Revert Rename of Given step 2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Updating Given</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Rename with other prefix</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2">
+        <v>51</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Updating Given</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Rename duplicate Given</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Updating When</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Rename "Valid When" to "Renamed Valid When"</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Updating When</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Rename "Valid When" to "Renamed Valid When" step 2a</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>30</v>
+      </c>
+      <c r="B11" s="2">
+        <v>47</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Updating When</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Rename "Valid When" to "Renamed Valid When" step 2b</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Updating When</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Revert Rename of When</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>30</v>
+      </c>
+      <c r="B13" s="2">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Updating When</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Revert Rename of When step 2</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>30</v>
+      </c>
+      <c r="B14" s="2">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Updating Then</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Rename "Valid Then" to "Renamed Valid Then"</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>30</v>
+      </c>
+      <c r="B15" s="2">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Updating Then</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Rename "Valid Then" to "Renamed Valid Then" step 2a</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2">
+        <v>48</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Updating Then</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Rename "Valid Then" to "Renamed Valid Then" step 2b</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2">
+        <v>26</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Updating Then</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Revert Rename of Then</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>30</v>
+      </c>
+      <c r="B18" s="2">
+        <v>27</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Updating Then</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Revert Rename of Then step 2</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2">
+        <v>49</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Updating Then</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Rename with other prefix</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2">
+        <v>53</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Updating Then</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Rename duplicate Then</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="4">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/67" xr:uid="{3F868BD5-2BD3-4331-A2D5-88C0A1C30ADA}"/>
+    <hyperlink ref="G3:G7" r:id="rId2" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/67" xr:uid="{59703E96-D67B-4009-BB49-D8D2FE95354B}"/>
+    <hyperlink ref="G9" r:id="rId3" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/67" xr:uid="{DBAAE778-CC98-48FD-A006-670D04A20AD0}"/>
+    <hyperlink ref="G10:G16" r:id="rId4" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/67" xr:uid="{4EF130B1-7B19-4ED6-802A-05B5D4ED6D3B}"/>
+    <hyperlink ref="G20" r:id="rId5" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/68" xr:uid="{257DB277-4F42-417F-9268-A8034F9DC644}"/>
+    <hyperlink ref="G17:G19" r:id="rId6" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/67" xr:uid="{BF9725B2-12D4-4CF6-A020-C7257BAB39A8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
+  <tableParts count="1">
+    <tablePart r:id="rId8"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C40D5E-178C-4CBE-84FD-F0A19D9B5282}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="68.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>VLOOKUP(Table111[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Adding Given</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>VLOOKUP(Table111[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Max length of Given description by typing</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>VLOOKUP(Table111[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Adding Then</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f>VLOOKUP(Table111[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Max length of Then description by typing</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2">
+        <v>64</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>VLOOKUP(Table111[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Adding Given</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f>VLOOKUP(Table111[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Max length of Given description by copying</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2">
+        <v>65</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f>VLOOKUP(Table111[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Adding Then</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f>VLOOKUP(Table111[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Max length of Then description by copying</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2">
+        <v>66</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f>VLOOKUP(Table111[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Adding Given</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f>VLOOKUP(Table111[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Max length of Given description by typing 2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2">
+        <v>67</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f>VLOOKUP(Table111[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Adding Then</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f>VLOOKUP(Table111[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Max length of Then description by typing 2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="4">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="G6" r:id="rId1" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/52" xr:uid="{2C0EA7C1-C328-42E9-8EC8-68123FBE2AFC}"/>
+    <hyperlink ref="G7" r:id="rId2" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/52" xr:uid="{06FD6F92-4069-4B45-A6EA-14841C90E3DA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B229A95-DBCE-41BC-8A33-A531A2900DC1}">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -2443,7 +4035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{663C0CD8-5230-4F0B-9499-E93B043E54F6}">
   <dimension ref="A1:H7"/>
   <sheetViews>
@@ -2642,7 +4234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122BD197-7F45-4928-9D20-CD78FF8E7D15}">
   <dimension ref="A1:H7"/>
   <sheetViews>
@@ -2880,7 +4472,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2533B5-85F8-41C0-8357-212E8264E485}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -2991,12 +4583,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6CDA3B-91CB-4727-9447-646835CD49A8}">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:F8"/>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4282,12 +5874,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459F82E4-EF04-40FF-A27D-FA4F8044E031}">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:F8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4323,178 +5915,163 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>VLOOKUP(Table15[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Updating When</v>
+        <v>Removing Given</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>VLOOKUP(Table15[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Rename "Valid When" to "Renamed Valid When"</v>
+        <v>Remove Given</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="str">
         <f>VLOOKUP(Table15[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Updating When</v>
+        <v>Removing Given</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>VLOOKUP(Table15[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Rename "Valid When" to "Renamed Valid When" step 2a</v>
+        <v>Remove Given step 2a</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2">
         <v>30</v>
-      </c>
-      <c r="B4" s="2">
-        <v>22</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>VLOOKUP(Table15[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Updating When</v>
+        <v>Removing Given</v>
       </c>
       <c r="D4" s="1" t="str">
         <f>VLOOKUP(Table15[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Revert Rename of When</v>
+        <v>Remove Given step 3a</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>VLOOKUP(Table15[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Updating When</v>
+        <v>Removing Given</v>
       </c>
       <c r="D5" s="1" t="str">
         <f>VLOOKUP(Table15[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Revert Rename of When step 2</v>
+        <v>Remove Given step 2b</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>19</v>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>VLOOKUP(Table15[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Updating Then</v>
+        <v>Removing Given</v>
       </c>
       <c r="D6" s="1" t="str">
         <f>VLOOKUP(Table15[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Rename "Valid Then" to "Renamed Valid Then"</v>
+        <v>Remove Given step 3b</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="2">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>VLOOKUP(Table15[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Updating Then</v>
+        <v>Removing Then</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>VLOOKUP(Table15[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Rename "Valid Then" to "Renamed Valid Then" step 2a</v>
+        <v>Remove Then</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="str">
         <f>VLOOKUP(Table15[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Updating Then</v>
+        <v>Removing Then</v>
       </c>
       <c r="D8" s="1" t="str">
         <f>VLOOKUP(Table15[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Revert Rename of Then</v>
+        <v>Remove Then step 2a</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" s="2">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="str">
         <f>VLOOKUP(Table15[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Updating Then</v>
+        <v>Removing Then</v>
       </c>
       <c r="D9" s="1" t="str">
         <f>VLOOKUP(Table15[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Revert Rename of Then step 2</v>
+        <v>Remove Then step 3a</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4502,21 +6079,21 @@
         <v>28</v>
       </c>
       <c r="B10" s="2">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="str">
         <f>VLOOKUP(Table15[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Removing Given</v>
+        <v>Removing Then</v>
       </c>
       <c r="D10" s="1" t="str">
         <f>VLOOKUP(Table15[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Remove Given</v>
+        <v>Remove Then step 2b</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4524,15 +6101,15 @@
         <v>28</v>
       </c>
       <c r="B11" s="2">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="str">
         <f>VLOOKUP(Table15[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Removing Given</v>
+        <v>Removing Then</v>
       </c>
       <c r="D11" s="1" t="str">
         <f>VLOOKUP(Table15[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Remove Given step 2a</v>
+        <v>Remove Then step 3b</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>4</v>
@@ -4543,7 +6120,7 @@
         <v>28</v>
       </c>
       <c r="B12" s="2">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="str">
         <f>VLOOKUP(Table15[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
@@ -4551,10 +6128,13 @@
       </c>
       <c r="D12" s="1" t="str">
         <f>VLOOKUP(Table15[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Remove Given step 3a</v>
+        <v>Remove Duplicate Given</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -4562,185 +6142,197 @@
         <v>28</v>
       </c>
       <c r="B13" s="2">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="str">
         <f>VLOOKUP(Table15[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Removing Given</v>
+        <v>Removing Then</v>
       </c>
       <c r="D13" s="1" t="str">
         <f>VLOOKUP(Table15[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Remove Given step 2b</v>
+        <v>Remove Duplicate Then</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1" t="str">
         <f>VLOOKUP(Table15[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Removing Given</v>
+        <v>Updating When</v>
       </c>
       <c r="D14" s="1" t="str">
         <f>VLOOKUP(Table15[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Remove Given step 3b</v>
+        <v>Rename "Valid When" to "Renamed Valid When"</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1" t="str">
         <f>VLOOKUP(Table15[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Removing Then</v>
+        <v>Updating When</v>
       </c>
       <c r="D15" s="1" t="str">
         <f>VLOOKUP(Table15[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Remove Then</v>
+        <v>Rename "Valid When" to "Renamed Valid When" step 2a</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>16</v>
+      <c r="F15" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1" t="str">
         <f>VLOOKUP(Table15[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Removing Then</v>
+        <v>Updating When</v>
       </c>
       <c r="D16" s="1" t="str">
         <f>VLOOKUP(Table15[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Remove Then step 2a</v>
+        <v>Revert Rename of When</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1" t="str">
         <f>VLOOKUP(Table15[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Removing Then</v>
+        <v>Updating When</v>
       </c>
       <c r="D17" s="1" t="str">
         <f>VLOOKUP(Table15[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Remove Then step 3a</v>
+        <v>Revert Rename of When step 2</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1" t="str">
         <f>VLOOKUP(Table15[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Removing Then</v>
+        <v>Updating Then</v>
       </c>
       <c r="D18" s="1" t="str">
         <f>VLOOKUP(Table15[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Remove Then step 2b</v>
+        <v>Rename "Valid Then" to "Renamed Valid Then"</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1" t="str">
         <f>VLOOKUP(Table15[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Removing Then</v>
+        <v>Updating Then</v>
       </c>
       <c r="D19" s="1" t="str">
         <f>VLOOKUP(Table15[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Remove Then step 3b</v>
+        <v>Rename "Valid Then" to "Renamed Valid Then" step 2a</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C20" s="1" t="str">
         <f>VLOOKUP(Table15[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Removing Given</v>
+        <v>Updating Then</v>
       </c>
       <c r="D20" s="1" t="str">
         <f>VLOOKUP(Table15[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Remove Duplicate Given</v>
+        <v>Revert Rename of Then</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1" t="str">
         <f>VLOOKUP(Table15[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Removing Then</v>
+        <v>Updating Then</v>
       </c>
       <c r="D21" s="1" t="str">
         <f>VLOOKUP(Table15[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Remove Duplicate Then</v>
+        <v>Revert Rename of Then step 2</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -4775,7 +6367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149B36FD-45F6-4775-811C-3829DD6FB8CE}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -5230,6 +6822,822 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58DB4B8A-83E7-4684-8978-EE6B815C176E}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="90.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <f>VLOOKUP(Table1569131417181922[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="B2" s="2">
+        <v>107</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>VLOOKUP(Table1569131417181922[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Updating Scenario</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>VLOOKUP(Table1569131417181922[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Rename scenario of feature in two codeunits</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <f>VLOOKUP(Table1569131417181922[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="B3" s="2">
+        <v>108</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>VLOOKUP(Table1569131417181922[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Updating Scenario</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f>VLOOKUP(Table1569131417181922[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Rename scenario of feature in two codeunits step 2a</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <f>VLOOKUP(Table1569131417181922[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="B4" s="2">
+        <v>109</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>VLOOKUP(Table1569131417181922[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Updating Scenario</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f>VLOOKUP(Table1569131417181922[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Rename scenario of feature in two codeunits step 2b</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1">
+        <f>SUBTOTAL(103,Table1569131417181922[Feature])</f>
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <f>SUBTOTAL(103,Table1569131417181922[Result])</f>
+        <v>3</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="1">
+        <f>SUBTOTAL(103,Table1569131417181922[Issue])</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A6:A1048576 A1:A4">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E1048576 E1:E4">
+    <cfRule type="cellIs" dxfId="59" priority="2" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="3" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="4" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1982C477-05AB-4D54-8026-137040C683DE}">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="90.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
+        <v>28</v>
+      </c>
+      <c r="B2" s="2">
+        <v>89</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Removing Given</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Remove Given clicking twice</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
+        <v>28</v>
+      </c>
+      <c r="B3" s="2">
+        <v>90</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Removing Given</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Remove Given clicking twice step 2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
+        <v>28</v>
+      </c>
+      <c r="B4" s="2">
+        <v>91</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Removing Given</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Remove Given clicking twice step 3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
+        <v>28</v>
+      </c>
+      <c r="B5" s="2">
+        <v>92</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Removing Then</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Remove Then clicking twice</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
+        <v>28</v>
+      </c>
+      <c r="B6" s="2">
+        <v>93</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Removing Then</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Remove Then clicking twice step 2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
+        <v>28</v>
+      </c>
+      <c r="B7" s="2">
+        <v>94</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Removing Then</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Remove Then clicking twice step 3</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
+        <v>61</v>
+      </c>
+      <c r="B8" s="2">
+        <v>85</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Adding Feature</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Adding Feature</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
+        <v>61</v>
+      </c>
+      <c r="B9" s="2">
+        <v>86</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Adding Feature</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Adding Feature 2a</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
+        <v>61</v>
+      </c>
+      <c r="B10" s="2">
+        <v>95</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Adding Feature</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Adding duplicate Feature</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
+        <v>62</v>
+      </c>
+      <c r="B11" s="2">
+        <v>98</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Removing Feature</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Remove Feature (only one in one codeunit)</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
+        <v>62</v>
+      </c>
+      <c r="B12" s="2">
+        <v>99</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Removing Feature</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Remove Feature (only one in one codeunit) step 2</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
+        <v>62</v>
+      </c>
+      <c r="B13" s="2">
+        <v>103</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Removing Feature</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Remove Feature (two in one codeunit)</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
+        <v>62</v>
+      </c>
+      <c r="B14" s="2">
+        <v>104</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Removing Feature</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Remove Feature (two in one codeunit) step 2</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
+        <v>62</v>
+      </c>
+      <c r="B15" s="2">
+        <v>105</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Removing Feature</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Remove Feature (two in two codeunits)</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
+        <v>62</v>
+      </c>
+      <c r="B16" s="2">
+        <v>106</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Removing Feature</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Remove Feature (two in two codeunits) step 2</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
+        <v>39</v>
+      </c>
+      <c r="B17" s="2">
+        <v>100</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Removing Scenario</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Remove Scenario clicking twice</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
+        <v>39</v>
+      </c>
+      <c r="B18" s="2">
+        <v>101</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Removing Scenario</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Remove Scenario clicking twice step 2</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
+        <v>39</v>
+      </c>
+      <c r="B19" s="2">
+        <v>102</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Removing Scenario</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f>VLOOKUP(Table15691314171820[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Remove Scenario clicking twice step 3</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="1">
+        <f>SUBTOTAL(103,Table15691314171820[Feature])</f>
+        <v>18</v>
+      </c>
+      <c r="E20" s="1">
+        <f>SUBTOTAL(103,Table15691314171820[Result])</f>
+        <v>14</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="1">
+        <f>SUBTOTAL(103,Table15691314171820[Issue])</f>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A21:A1048576 A1:A19">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21:E1048576 E1:E19">
+    <cfRule type="cellIs" dxfId="56" priority="2" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="3" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="4" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="G10" r:id="rId1" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/87" xr:uid="{8E79F791-08DA-4885-8ECE-455E7526060A}"/>
+    <hyperlink ref="G11" r:id="rId2" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/62" xr:uid="{6EC1AB4B-7A12-4836-9657-17CE892E1689}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891303EA-C28A-41B4-8227-C4B0FA0A06CE}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="90.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <f>VLOOKUP(Table15691314171819[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
+        <v>39</v>
+      </c>
+      <c r="B2" s="2">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>VLOOKUP(Table15691314171819[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Removing Scenario</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>VLOOKUP(Table15691314171819[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Remove Scenario clicking twice</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <f>VLOOKUP(Table15691314171819[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
+        <v>39</v>
+      </c>
+      <c r="B3" s="2">
+        <v>101</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>VLOOKUP(Table15691314171819[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Removing Scenario</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f>VLOOKUP(Table15691314171819[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Remove Scenario clicking twice step 2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <f>VLOOKUP(Table15691314171819[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
+        <v>39</v>
+      </c>
+      <c r="B4" s="2">
+        <v>102</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>VLOOKUP(Table15691314171819[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
+        <v>Removing Scenario</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f>VLOOKUP(Table15691314171819[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
+        <v>Remove Scenario clicking twice step 3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1">
+        <f>SUBTOTAL(103,Table15691314171819[Feature])</f>
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <f>SUBTOTAL(103,Table15691314171819[Result])</f>
+        <v>3</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="1">
+        <f>SUBTOTAL(103,Table15691314171819[Issue])</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A6:A1048576 A1:A4">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E1048576 E1:E4">
+    <cfRule type="cellIs" dxfId="53" priority="2" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="3" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="4" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="G4" r:id="rId1" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/88" xr:uid="{CD46692A-D807-457C-9BB2-53584C9C8D4D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC34DE4-38EF-4ECE-8BAE-EDF93868435C}">
   <dimension ref="A1:G91"/>
   <sheetViews>
@@ -7147,7 +9555,7 @@
       </c>
       <c r="D90" s="1" t="str">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Remove Feature (only one in one codeunit) step 2a</v>
+        <v>Remove Feature (only one in one codeunit) step 2</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>1</v>
@@ -7217,7 +9625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624735C4-7A8E-4BA0-80DE-7F25E0C4B1D2}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -7312,7 +9720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4819EA20-3546-4C20-849A-5199036DBC21}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -7481,7 +9889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B994256-12FA-4F4D-867D-2383E3A7E900}">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -7819,7 +10227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BAD4F7C-9A07-4142-9236-CF020D5568C4}">
   <dimension ref="A1:G75"/>
   <sheetViews>
@@ -9509,1199 +11917,4 @@
     <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FDF79B-0D2C-4ACD-8E32-A1388079EC3D}">
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="90.42578125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
-        <v>39</v>
-      </c>
-      <c r="B2" s="2">
-        <v>56</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Removing Scenario</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Removing Scenario</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
-        <v>39</v>
-      </c>
-      <c r="B3" s="2">
-        <v>57</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Removing Scenario</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Removing Scenario step 2a</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
-        <v>39</v>
-      </c>
-      <c r="B4" s="2">
-        <v>58</v>
-      </c>
-      <c r="C4" s="1" t="str">
-        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Removing Scenario</v>
-      </c>
-      <c r="D4" s="1" t="str">
-        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Removing Scenario step 3a</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
-        <v>39</v>
-      </c>
-      <c r="B5" s="2">
-        <v>59</v>
-      </c>
-      <c r="C5" s="1" t="str">
-        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Removing Scenario</v>
-      </c>
-      <c r="D5" s="1" t="str">
-        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Removing Scenario step 2b</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
-        <v>39</v>
-      </c>
-      <c r="B6" s="2">
-        <v>60</v>
-      </c>
-      <c r="C6" s="1" t="str">
-        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Removing Scenario</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Removing Scenario step 3b</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
-        <v>39</v>
-      </c>
-      <c r="B7" s="2">
-        <v>68</v>
-      </c>
-      <c r="C7" s="1" t="str">
-        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Removing Scenario</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Removing Scenario with Initialize</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
-        <v>39</v>
-      </c>
-      <c r="B8" s="2">
-        <v>69</v>
-      </c>
-      <c r="C8" s="1" t="str">
-        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Removing Scenario</v>
-      </c>
-      <c r="D8" s="1" t="str">
-        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Removing Scenario with UI Handler</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
-        <v>39</v>
-      </c>
-      <c r="B9" s="2">
-        <v>70</v>
-      </c>
-      <c r="C9" s="1" t="str">
-        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Removing Scenario</v>
-      </c>
-      <c r="D9" s="1" t="str">
-        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Removing Scenario with UI Handler 2</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
-        <v>39</v>
-      </c>
-      <c r="B10" s="2">
-        <v>71</v>
-      </c>
-      <c r="C10" s="1" t="str">
-        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Removing Scenario</v>
-      </c>
-      <c r="D10" s="1" t="str">
-        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Removal Mode "No confirmation, but removal"</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
-        <v>39</v>
-      </c>
-      <c r="B11" s="2">
-        <v>72</v>
-      </c>
-      <c r="C11" s="1" t="str">
-        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Removing Scenario</v>
-      </c>
-      <c r="D11" s="1" t="str">
-        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Removal Mode "No confirmation &amp; no removal"</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
-        <v>30</v>
-      </c>
-      <c r="B12" s="2">
-        <v>16</v>
-      </c>
-      <c r="C12" s="1" t="str">
-        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Updating Given</v>
-      </c>
-      <c r="D12" s="1" t="str">
-        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Rename "Valid Given" to "Renamed Valid Given"</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="4">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
-        <v>30</v>
-      </c>
-      <c r="B13" s="2">
-        <v>17</v>
-      </c>
-      <c r="C13" s="1" t="str">
-        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Updating Given</v>
-      </c>
-      <c r="D13" s="1" t="str">
-        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Rename "Valid Given" to "Renamed Valid Given" step 2a</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
-        <v>30</v>
-      </c>
-      <c r="B14" s="2">
-        <v>20</v>
-      </c>
-      <c r="C14" s="1" t="str">
-        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Updating When</v>
-      </c>
-      <c r="D14" s="1" t="str">
-        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Rename "Valid When" to "Renamed Valid When"</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="4">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
-        <v>30</v>
-      </c>
-      <c r="B15" s="2">
-        <v>21</v>
-      </c>
-      <c r="C15" s="1" t="str">
-        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Updating When</v>
-      </c>
-      <c r="D15" s="1" t="str">
-        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Rename "Valid When" to "Renamed Valid When" step 2a</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
-        <v>30</v>
-      </c>
-      <c r="B16" s="2">
-        <v>24</v>
-      </c>
-      <c r="C16" s="1" t="str">
-        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Updating Then</v>
-      </c>
-      <c r="D16" s="1" t="str">
-        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Rename "Valid Then" to "Renamed Valid Then"</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="4">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],12,FALSE)</f>
-        <v>30</v>
-      </c>
-      <c r="B17" s="2">
-        <v>25</v>
-      </c>
-      <c r="C17" s="1" t="str">
-        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Updating Then</v>
-      </c>
-      <c r="D17" s="1" t="str">
-        <f>VLOOKUP(Table156913[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Rename "Valid Then" to "Renamed Valid Then" step 2a</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="4">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="4" operator="equal">
-      <formula>"Pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="G14" r:id="rId1" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/67" xr:uid="{9E30EC47-48F7-497C-945B-A95DA6E87667}"/>
-    <hyperlink ref="G15:G17" r:id="rId2" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/67" xr:uid="{D43A34CF-E225-4834-BD27-AEC9D3AE6D17}"/>
-    <hyperlink ref="G13" r:id="rId3" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/67" xr:uid="{406EC42A-40B1-4CCD-B392-F7B583AB2C8E}"/>
-    <hyperlink ref="G12" r:id="rId4" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/67" xr:uid="{55E122DE-E7E9-4E82-AC69-157EA45966F0}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
-  <tableParts count="1">
-    <tablePart r:id="rId6"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536C9D24-6F59-45ED-9C31-287A9BDA87DC}">
-  <dimension ref="A1:H20"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="90.42578125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>30</v>
-      </c>
-      <c r="B2" s="2">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Updating Given</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Rename "Valid Given" to "Renamed Valid Given"</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="4">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>30</v>
-      </c>
-      <c r="B3" s="2">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Updating Given</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Rename "Valid Given" to "Renamed Valid Given" step 2a</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="4">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>30</v>
-      </c>
-      <c r="B4" s="2">
-        <v>46</v>
-      </c>
-      <c r="C4" s="1" t="str">
-        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Updating Given</v>
-      </c>
-      <c r="D4" s="1" t="str">
-        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Rename "Valid Given" to "Renamed Valid Given" step 2b</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="4">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>30</v>
-      </c>
-      <c r="B5" s="2">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1" t="str">
-        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Updating Given</v>
-      </c>
-      <c r="D5" s="1" t="str">
-        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Revert Rename of Given</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="4">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>30</v>
-      </c>
-      <c r="B6" s="2">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="str">
-        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Updating Given</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Revert Rename of Given step 2</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="4">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>30</v>
-      </c>
-      <c r="B7" s="2">
-        <v>44</v>
-      </c>
-      <c r="C7" s="1" t="str">
-        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Updating Given</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Rename with other prefix</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="4">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>30</v>
-      </c>
-      <c r="B8" s="2">
-        <v>51</v>
-      </c>
-      <c r="C8" s="1" t="str">
-        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Updating Given</v>
-      </c>
-      <c r="D8" s="1" t="str">
-        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Rename duplicate Given</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>30</v>
-      </c>
-      <c r="B9" s="2">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1" t="str">
-        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Updating When</v>
-      </c>
-      <c r="D9" s="1" t="str">
-        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Rename "Valid When" to "Renamed Valid When"</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="4">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>30</v>
-      </c>
-      <c r="B10" s="2">
-        <v>21</v>
-      </c>
-      <c r="C10" s="1" t="str">
-        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Updating When</v>
-      </c>
-      <c r="D10" s="1" t="str">
-        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Rename "Valid When" to "Renamed Valid When" step 2a</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="4">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>30</v>
-      </c>
-      <c r="B11" s="2">
-        <v>47</v>
-      </c>
-      <c r="C11" s="1" t="str">
-        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Updating When</v>
-      </c>
-      <c r="D11" s="1" t="str">
-        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Rename "Valid When" to "Renamed Valid When" step 2b</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="4">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>30</v>
-      </c>
-      <c r="B12" s="2">
-        <v>22</v>
-      </c>
-      <c r="C12" s="1" t="str">
-        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Updating When</v>
-      </c>
-      <c r="D12" s="1" t="str">
-        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Revert Rename of When</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="4">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>30</v>
-      </c>
-      <c r="B13" s="2">
-        <v>23</v>
-      </c>
-      <c r="C13" s="1" t="str">
-        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Updating When</v>
-      </c>
-      <c r="D13" s="1" t="str">
-        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Revert Rename of When step 2</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="4">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>30</v>
-      </c>
-      <c r="B14" s="2">
-        <v>24</v>
-      </c>
-      <c r="C14" s="1" t="str">
-        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Updating Then</v>
-      </c>
-      <c r="D14" s="1" t="str">
-        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Rename "Valid Then" to "Renamed Valid Then"</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="4">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>30</v>
-      </c>
-      <c r="B15" s="2">
-        <v>25</v>
-      </c>
-      <c r="C15" s="1" t="str">
-        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Updating Then</v>
-      </c>
-      <c r="D15" s="1" t="str">
-        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Rename "Valid Then" to "Renamed Valid Then" step 2a</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="4">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>30</v>
-      </c>
-      <c r="B16" s="2">
-        <v>48</v>
-      </c>
-      <c r="C16" s="1" t="str">
-        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Updating Then</v>
-      </c>
-      <c r="D16" s="1" t="str">
-        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Rename "Valid Then" to "Renamed Valid Then" step 2b</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="4">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>30</v>
-      </c>
-      <c r="B17" s="2">
-        <v>26</v>
-      </c>
-      <c r="C17" s="1" t="str">
-        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Updating Then</v>
-      </c>
-      <c r="D17" s="1" t="str">
-        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Revert Rename of Then</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="4">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2">
-        <v>27</v>
-      </c>
-      <c r="C18" s="1" t="str">
-        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Updating Then</v>
-      </c>
-      <c r="D18" s="1" t="str">
-        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Revert Rename of Then step 2</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="4">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>30</v>
-      </c>
-      <c r="B19" s="2">
-        <v>49</v>
-      </c>
-      <c r="C19" s="1" t="str">
-        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Updating Then</v>
-      </c>
-      <c r="D19" s="1" t="str">
-        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Rename with other prefix</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="4">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>30</v>
-      </c>
-      <c r="B20" s="2">
-        <v>53</v>
-      </c>
-      <c r="C20" s="1" t="str">
-        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Updating Then</v>
-      </c>
-      <c r="D20" s="1" t="str">
-        <f>VLOOKUP(Table1561012[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Rename duplicate Then</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" s="4">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
-      <formula>"Pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/67" xr:uid="{3F868BD5-2BD3-4331-A2D5-88C0A1C30ADA}"/>
-    <hyperlink ref="G3:G7" r:id="rId2" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/67" xr:uid="{59703E96-D67B-4009-BB49-D8D2FE95354B}"/>
-    <hyperlink ref="G9" r:id="rId3" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/67" xr:uid="{DBAAE778-CC98-48FD-A006-670D04A20AD0}"/>
-    <hyperlink ref="G10:G16" r:id="rId4" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/67" xr:uid="{4EF130B1-7B19-4ED6-802A-05B5D4ED6D3B}"/>
-    <hyperlink ref="G20" r:id="rId5" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/68" xr:uid="{257DB277-4F42-417F-9268-A8034F9DC644}"/>
-    <hyperlink ref="G17:G19" r:id="rId6" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/67" xr:uid="{BF9725B2-12D4-4CF6-A020-C7257BAB39A8}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
-  <tableParts count="1">
-    <tablePart r:id="rId8"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C40D5E-178C-4CBE-84FD-F0A19D9B5282}">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="68.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>27</v>
-      </c>
-      <c r="B2" s="2">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <f>VLOOKUP(Table111[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Adding Given</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <f>VLOOKUP(Table111[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Max length of Given description by typing</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>27</v>
-      </c>
-      <c r="B3" s="2">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <f>VLOOKUP(Table111[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Adding Then</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <f>VLOOKUP(Table111[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Max length of Then description by typing</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2">
-        <v>64</v>
-      </c>
-      <c r="C4" s="1" t="str">
-        <f>VLOOKUP(Table111[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Adding Given</v>
-      </c>
-      <c r="D4" s="1" t="str">
-        <f>VLOOKUP(Table111[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Max length of Given description by copying</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>27</v>
-      </c>
-      <c r="B5" s="2">
-        <v>65</v>
-      </c>
-      <c r="C5" s="1" t="str">
-        <f>VLOOKUP(Table111[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Adding Then</v>
-      </c>
-      <c r="D5" s="1" t="str">
-        <f>VLOOKUP(Table111[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Max length of Then description by copying</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>27</v>
-      </c>
-      <c r="B6" s="2">
-        <v>66</v>
-      </c>
-      <c r="C6" s="1" t="str">
-        <f>VLOOKUP(Table111[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Adding Given</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <f>VLOOKUP(Table111[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Max length of Given description by typing 2</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="4">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>27</v>
-      </c>
-      <c r="B7" s="2">
-        <v>67</v>
-      </c>
-      <c r="C7" s="1" t="str">
-        <f>VLOOKUP(Table111[[#This Row],['#]],[1]!Table14[#Data],2,FALSE)</f>
-        <v>Adding Then</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <f>VLOOKUP(Table111[[#This Row],['#]],[1]!Table14[#Data],6,FALSE)</f>
-        <v>Max length of Then description by typing 2</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="4">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
-      <formula>"Pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="G6" r:id="rId1" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/52" xr:uid="{2C0EA7C1-C328-42E9-8EC8-68123FBE2AFC}"/>
-    <hyperlink ref="G7" r:id="rId2" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/52" xr:uid="{06FD6F92-4069-4B45-A6EA-14841C90E3DA}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId4"/>
-  </tableParts>
-</worksheet>
 </file>